--- a/SuperDial电机旋钮屏V2_Bom.xlsx
+++ b/SuperDial电机旋钮屏V2_Bom.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="190">
   <si>
     <t>SuperDial电机旋钮屏V2物料清单（元器件）</t>
   </si>
@@ -435,9 +435,6 @@
     <t>屏幕板</t>
   </si>
   <si>
-    <t>CC0085KRX7R9BB104</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -453,22 +450,10 @@
     <t>Q4</t>
   </si>
   <si>
-    <t>0603WAF1001T5E</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>1kΩ</t>
-  </si>
-  <si>
-    <t>C21190</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
-    <t>R3</t>
+    <t>R1,R3</t>
   </si>
   <si>
     <t>SuperDial电机旋钮屏V2物料清单（打印件）</t>
@@ -1724,10 +1709,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2698,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="C42" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>21</v>
@@ -2746,13 +2731,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>142</v>
-      </c>
       <c r="E44" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>13</v>
@@ -2761,7 +2746,7 @@
         <v>13</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2775,7 +2760,7 @@
         <v>55</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>57</v>
@@ -2796,19 +2781,19 @@
         <v>1</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>61</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="H46" s="8"/>
     </row>
@@ -2817,48 +2802,24 @@
         <v>40</v>
       </c>
       <c r="B47" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>61</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="10">
-        <v>41</v>
-      </c>
-      <c r="B48" s="10">
-        <v>1</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H48" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2886,7 +2847,7 @@
   <sheetData>
     <row r="1" ht="22.5" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2897,7 +2858,7 @@
     </row>
     <row r="2" ht="20.25" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -2908,7 +2869,7 @@
     </row>
     <row r="3" ht="20.25" spans="1:7">
       <c r="A3" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -2919,7 +2880,7 @@
     </row>
     <row r="4" ht="20.25" spans="1:7">
       <c r="A4" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2960,7 +2921,7 @@
   <sheetData>
     <row r="1" ht="22.5" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2988,10 +2949,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3002,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3016,10 +2977,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3030,10 +2991,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3044,10 +3005,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3058,10 +3019,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3072,10 +3033,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3086,10 +3047,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3100,10 +3061,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3114,10 +3075,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3128,10 +3089,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3142,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3156,10 +3117,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3170,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D16" s="5"/>
     </row>
@@ -3182,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3196,10 +3157,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3210,10 +3171,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3224,10 +3185,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3238,10 +3199,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3252,10 +3213,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:1">

--- a/SuperDial电机旋钮屏V2_Bom.xlsx
+++ b/SuperDial电机旋钮屏V2_Bom.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="192">
   <si>
     <t>SuperDial电机旋钮屏V2物料清单（元器件）</t>
   </si>
@@ -471,6 +471,9 @@
     <t>SuperDial电机旋钮屏V2物料清单（其他辅料）</t>
   </si>
   <si>
+    <t>链接</t>
+  </si>
+  <si>
     <t>USB to TTL烧录器</t>
   </si>
   <si>
@@ -501,6 +504,9 @@
     <t>过屏幕线</t>
   </si>
   <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.7b032e8dFfj04J&amp;id=586042823294&amp;_u=e1sddf3s0c59</t>
+  </si>
+  <si>
     <t>高温结构胶若干</t>
   </si>
   <si>
@@ -540,7 +546,7 @@
     <t>间距0.8mm 8P 32AWG双头同向线</t>
   </si>
   <si>
-    <t>连接驱动和主控，越短越好（定制）</t>
+    <t>连接驱动和主控，越短越好（可定制）</t>
   </si>
   <si>
     <t>M2*5螺丝</t>
@@ -611,6 +617,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -644,14 +658,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1140,10 +1146,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1152,19 +1158,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1176,7 +1182,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1197,13 +1203,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1215,10 +1221,10 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1233,56 +1239,56 @@
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1299,16 +1305,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1712,7 +1721,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1726,1100 +1735,1100 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" ht="20.25" spans="1:8">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8" t="s">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>5</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>4</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>6</v>
       </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="10">
+      <c r="A10" s="11">
         <v>7</v>
       </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="10">
+      <c r="A11" s="11">
         <v>8</v>
       </c>
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="10">
+      <c r="A12" s="11">
         <v>9</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="11">
         <v>8</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="10">
+      <c r="A13" s="11">
         <v>10</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="11">
         <v>8</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="10">
+      <c r="A14" s="11">
         <v>11</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="10">
+      <c r="A15" s="11">
         <v>12</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="11">
         <v>4</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="10">
+      <c r="A16" s="11">
         <v>13</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="11">
         <v>9</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="10">
+      <c r="A17" s="11">
         <v>14</v>
       </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="11">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="10">
+      <c r="A18" s="11">
         <v>15</v>
       </c>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="10">
+      <c r="A19" s="11">
         <v>16</v>
       </c>
-      <c r="B19" s="10">
-        <v>1</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="11">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="10">
+      <c r="A20" s="11">
         <v>17</v>
       </c>
-      <c r="B20" s="10">
-        <v>1</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="11">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="10">
+      <c r="A21" s="11">
         <v>18</v>
       </c>
-      <c r="B21" s="10">
-        <v>1</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="11">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="10">
+      <c r="A22" s="11">
         <v>19</v>
       </c>
-      <c r="B22" s="10">
-        <v>1</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="11">
+        <v>1</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="10">
+      <c r="A23" s="11">
         <v>20</v>
       </c>
-      <c r="B23" s="10">
-        <v>1</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="11">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="10">
+      <c r="A24" s="11">
         <v>21</v>
       </c>
-      <c r="B24" s="10">
-        <v>1</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="11">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="10">
+      <c r="A25" s="11">
         <v>22</v>
       </c>
-      <c r="B25" s="10">
-        <v>1</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="11">
+        <v>1</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="H25" s="8"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="10">
+      <c r="A26" s="11">
         <v>23</v>
       </c>
-      <c r="B26" s="10">
-        <v>1</v>
-      </c>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="11">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" ht="20.25" spans="1:8">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="8"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="10">
+      <c r="A29" s="11">
         <v>24</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="11">
         <v>3</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="10">
+      <c r="A30" s="11">
         <v>25</v>
       </c>
-      <c r="B30" s="10">
-        <v>1</v>
-      </c>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="11">
+        <v>1</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="10">
+      <c r="A31" s="11">
         <v>26</v>
       </c>
-      <c r="B31" s="10">
-        <v>1</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="11">
+        <v>1</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="10">
+      <c r="A32" s="11">
         <v>27</v>
       </c>
-      <c r="B32" s="10">
-        <v>1</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="11">
+        <v>1</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="10">
+      <c r="A33" s="11">
         <v>28</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="11">
         <v>6</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="10">
+      <c r="A34" s="11">
         <v>29</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="11">
         <v>3</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H34" s="8"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="10">
+      <c r="A35" s="11">
         <v>30</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="11">
         <v>6</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="10">
+      <c r="A36" s="11">
         <v>31</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="11">
         <v>6</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="10">
+      <c r="A37" s="11">
         <v>32</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="11">
         <v>2</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="10">
+      <c r="A38" s="11">
         <v>33</v>
       </c>
-      <c r="B38" s="10">
-        <v>1</v>
-      </c>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="11">
+        <v>1</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="H38" s="8"/>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="10">
+      <c r="A39" s="11">
         <v>34</v>
       </c>
-      <c r="B39" s="10">
-        <v>1</v>
-      </c>
-      <c r="C39" s="10" t="s">
+      <c r="B39" s="11">
+        <v>1</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H39" s="8"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" ht="20.25" spans="1:8">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="8"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="8"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="10">
+      <c r="A42" s="11">
         <v>35</v>
       </c>
-      <c r="B42" s="10">
-        <v>1</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="B42" s="11">
+        <v>1</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="8"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="10">
+      <c r="A43" s="11">
         <v>36</v>
       </c>
-      <c r="B43" s="10">
-        <v>1</v>
-      </c>
-      <c r="C43" s="10" t="s">
+      <c r="B43" s="11">
+        <v>1</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H43" s="8"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="10">
+      <c r="A44" s="11">
         <v>37</v>
       </c>
-      <c r="B44" s="10">
-        <v>1</v>
-      </c>
-      <c r="C44" s="10" t="s">
+      <c r="B44" s="11">
+        <v>1</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="10">
+      <c r="A45" s="11">
         <v>38</v>
       </c>
-      <c r="B45" s="10">
-        <v>1</v>
-      </c>
-      <c r="C45" s="10" t="s">
+      <c r="B45" s="11">
+        <v>1</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H45" s="8"/>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="10">
+      <c r="A46" s="11">
         <v>39</v>
       </c>
-      <c r="B46" s="10">
-        <v>1</v>
-      </c>
-      <c r="C46" s="10" t="s">
+      <c r="B46" s="11">
+        <v>1</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H46" s="8"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="10">
+      <c r="A47" s="11">
         <v>40</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="11">
         <v>2</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="H47" s="8"/>
+      <c r="H47" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2846,48 +2855,48 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="22.5" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" ht="20.25" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" ht="20.25" spans="1:7">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" ht="20.25" spans="1:7">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2905,27 +2914,31 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="5.26666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.6333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.9083333333333" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="106" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:4">
+    <row r="1" ht="22.5" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
+      <c r="E1" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
@@ -2949,10 +2962,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2963,10 +2976,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2977,10 +2990,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2991,13 +3004,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3005,10 +3018,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3019,10 +3035,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3033,10 +3049,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3047,10 +3063,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3061,10 +3077,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3075,10 +3091,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3089,10 +3105,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3103,10 +3119,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3117,10 +3133,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3131,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D16" s="5"/>
     </row>
@@ -3143,10 +3159,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3157,10 +3173,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3171,10 +3187,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3185,10 +3201,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3199,10 +3215,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3213,10 +3229,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -3293,6 +3309,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.7b032e8dFfj04J&amp;id=586042823294&amp;_u=e1sddf3s0c59"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
